--- a/example_data/EPA/label_corrected/007969-00209-20150313_2018-12-08_053004.xlsx
+++ b/example_data/EPA/label_corrected/007969-00209-20150313_2018-12-08_053004.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PPE || 18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>ppe || 18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
